--- a/Finflux Automation Excels/Client/4970-DISBLOAN-VerifyRDTransaction-JouranlEntries.xlsx
+++ b/Finflux Automation Excels/Client/4970-DISBLOAN-VerifyRDTransaction-JouranlEntries.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
   <si>
     <t>CenterName</t>
   </si>
@@ -322,13 +322,16 @@
     <t>INCOME</t>
   </si>
   <si>
-    <t>Income from fees(8)</t>
-  </si>
-  <si>
     <t>$ 140</t>
   </si>
   <si>
     <t>$ 13,300</t>
+  </si>
+  <si>
+    <t>From HDFC(28)</t>
+  </si>
+  <si>
+    <t>Fees to SBI 1(30)</t>
   </si>
 </sst>
 </file>
@@ -338,7 +341,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="d\ mmm\ yy"/>
+    <numFmt numFmtId="166" formatCode="d\ mmm\ yy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -477,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -897,7 +900,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +961,7 @@
         <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -981,10 +984,10 @@
         <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1000,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,11 +1058,11 @@
       <c r="F2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>97</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1085,7 +1088,7 @@
         <v>93</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
